--- a/data_files/miscData/pakistan_gdp.xlsx
+++ b/data_files/miscData/pakistan_gdp.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/DistributionalNationalAccounts-Pakistan/data_files/miscData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34835C57-321C-C749-BBAC-D1EDD075DD60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50FDE692-7465-CB41-81F0-50062A09F097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -32,43 +32,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">mgdpro_999_i_PK
-</t>
+      <t>Percentile</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Gross domestic product
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Total population | Constant local | ppp | constant (2017)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pakistan</t>
-    </r>
+  </si>
+  <si>
+    <t>pall</t>
   </si>
   <si>
     <t>Country Code</t>
@@ -125,10 +93,22 @@
     <t>WID.world computations using: [URL][URL_LINK]http://data.worldbank.org/[/URL_LINK][URL_TEXT]World Bank[/URL_TEXT][/URL]; [URL][URL_LINK]http://unstats.un.org/unsd/snaama/Introduction.asp[/URL_LINK][URL_TEXT]United Nations National Accounts Main Aggregates Database[/URL_TEXT][/URL]; [URL][URL_LINK]http://www.ggdc.net/maddison/other_books/Contours_World_Economy.pdf[/URL_LINK][URL_TEXT]Maddison, Angus (2007). Contours of the World Economy 1-2030 AD.[/URL_TEXT][/URL]; [URL][URL_LINK]http://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx/[/URL_LINK][URL_TEXT]IMF World Economic Outlook (04/2018)[/URL_TEXT][/URL]; [URL][URL_LINK]http://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx/[/URL_LINK][URL_TEXT]IMF World Economic Outlook (04/2018)[/URL_TEXT][/URL]</t>
   </si>
   <si>
+    <t>mgdpro_999_i_PK
+Gross domestic product
+Total population | Constant local | ppp | constant (2017)
+Pakistan</t>
+  </si>
+  <si>
     <t>gdp</t>
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>gdp_index_2005</t>
+  </si>
+  <si>
+    <t>gdp_index_2017</t>
   </si>
 </sst>
 </file>
@@ -195,14 +175,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,169 +523,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="C2" s="3">
         <v>16118876995584</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D2">
+        <v>76.694800000000001</v>
+      </c>
+      <c r="E2">
+        <f>(D2/$D$19)</f>
+        <v>0.48635482465624691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2001</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C3" s="3">
         <v>16536536350720</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="D3">
+        <v>78.682100000000005</v>
+      </c>
+      <c r="E3">
+        <f>(D3/$D$19)</f>
+        <v>0.4989571515811409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2002</v>
       </c>
-      <c r="B4" s="6">
+      <c r="C4" s="3">
         <v>17211469070336</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="D4">
+        <v>81.893500000000003</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E19" si="0">(D4/$D$19)</f>
+        <v>0.51932202486982637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>2003</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C5" s="3">
         <v>18282568482816</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="D5">
+        <v>86.989800000000002</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.55163986249239827</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>2004</v>
       </c>
-      <c r="B6" s="6">
+      <c r="C6" s="3">
         <v>19656588918784</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="D6">
+        <v>93.527500000000003</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.5930982395551867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>2005</v>
       </c>
-      <c r="B7" s="6">
+      <c r="C7" s="3">
         <v>21016900272128</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.63414315528073206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>2006</v>
       </c>
-      <c r="B8" s="6">
+      <c r="C8" s="3">
         <v>22155093868544</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="D8">
+        <v>105.4156</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.66848581199811541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>2007</v>
       </c>
-      <c r="B9" s="6">
+      <c r="C9" s="3">
         <v>22863767666688</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="D9">
+        <v>108.78749999999999</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.68986848505102638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>2008</v>
       </c>
-      <c r="B10" s="6">
+      <c r="C10" s="3">
         <v>23401412427776</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="D10">
+        <v>111.34569999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.70609113524941802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>2009</v>
       </c>
-      <c r="B11" s="6">
+      <c r="C11" s="3">
         <v>23897275629568</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="D11">
+        <v>113.705</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.72105247471195633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>2010</v>
       </c>
-      <c r="B12" s="6">
+      <c r="C12" s="3">
         <v>24438296805376</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="D12">
+        <v>116.27930000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.73737722195834832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>2011</v>
       </c>
-      <c r="B13" s="6">
+      <c r="C13" s="3">
         <v>25185939881984</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="D13">
+        <v>119.8366</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.75993559642114983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>2012</v>
       </c>
-      <c r="B14" s="6">
+      <c r="C14" s="3">
         <v>26189083181056</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="D14">
+        <v>124.6096</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.79020324922269913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>2013</v>
       </c>
-      <c r="B15" s="6">
+      <c r="C15" s="3">
         <v>27380225671168</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="D15">
+        <v>130.27719999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.8261439466913898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>2014</v>
       </c>
-      <c r="B16" s="6">
+      <c r="C16" s="3">
         <v>28656025993216</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="D16">
+        <v>136.3475</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.86463833864639617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>2015</v>
       </c>
-      <c r="B17" s="6">
+      <c r="C17" s="3">
         <v>30150032883712</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="D17">
+        <v>143.45609999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.90971703898268219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>2016</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="3">
         <v>31508494548992</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="D18">
+        <v>149.91980000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.95070615011056303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>2017</v>
       </c>
-      <c r="B19" s="6">
+      <c r="C19" s="3">
         <v>33142192734208</v>
+      </c>
+      <c r="D19">
+        <v>157.69309999999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -715,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -726,63 +897,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data_files/miscData/pakistan_gdp.xlsx
+++ b/data_files/miscData/pakistan_gdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/DistributionalNationalAccounts-Pakistan/data_files/miscData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50FDE692-7465-CB41-81F0-50062A09F097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A723DF-7E36-A74B-BF3B-9AAE08F37FBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Gross domestic product. Total All Ages. individuals</t>
   </si>
   <si>
-    <t>GDP level in 2015 from the UN SNA main tables. Until 1959, we use the GDP growth rates from Maddison (2007). Between 1960 and 1969, we use the GDP growth rates from the World Bank. Between 1970 and 2014, we use the GDP growth rates from the UN SNA main tables.  Between 2016 and 2016, we use the GDP growth rates from the IMF World Economic Outlook. After 2016, we use the GDP growth rates from the IMF World Economic Outlook (forecast).</t>
-  </si>
-  <si>
     <t>WID.world computations using: [URL][URL_LINK]http://data.worldbank.org/[/URL_LINK][URL_TEXT]World Bank[/URL_TEXT][/URL]; [URL][URL_LINK]http://unstats.un.org/unsd/snaama/Introduction.asp[/URL_LINK][URL_TEXT]United Nations National Accounts Main Aggregates Database[/URL_TEXT][/URL]; [URL][URL_LINK]http://www.ggdc.net/maddison/other_books/Contours_World_Economy.pdf[/URL_LINK][URL_TEXT]Maddison, Angus (2007). Contours of the World Economy 1-2030 AD.[/URL_TEXT][/URL]; [URL][URL_LINK]http://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx/[/URL_LINK][URL_TEXT]IMF World Economic Outlook (04/2018)[/URL_TEXT][/URL]; [URL][URL_LINK]http://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx/[/URL_LINK][URL_TEXT]IMF World Economic Outlook (04/2018)[/URL_TEXT][/URL]</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>gdp_index_2017</t>
+  </si>
+  <si>
+    <t>GDP level in 2015 from the UN SNA main tables. Until 1959, we use the GDP growth rates from Maddison (2007). Between 1960 and 1969, we use the GDP growth rates from the World Bank. Between 1970 and 2014, we use the GDP growth rates from the UN SNA main tables.  Between 2016 and 2016, we use the GDP growth rates from the IMF World Economic Outlook. After 2016, fwe use the GDP growth rates from the IMF World Economic Outlook (forecast).</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -541,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -947,13 +947,13 @@
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
